--- a/Code/Results/Cases/Case_9_2/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_2/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.13922046957859</v>
+        <v>21.05429103096999</v>
       </c>
       <c r="C2">
-        <v>12.38685234452737</v>
+        <v>13.26605837161849</v>
       </c>
       <c r="D2">
-        <v>3.257582567252467</v>
+        <v>3.560888288859818</v>
       </c>
       <c r="E2">
-        <v>6.946172562925683</v>
+        <v>6.951929801843404</v>
       </c>
       <c r="F2">
-        <v>31.8586608653762</v>
+        <v>29.08028872448141</v>
       </c>
       <c r="G2">
-        <v>43.16319119474156</v>
+        <v>38.21084111214507</v>
       </c>
       <c r="H2">
-        <v>3.585851575705969</v>
+        <v>3.357733976265131</v>
       </c>
       <c r="I2">
-        <v>4.207279912288364</v>
+        <v>3.919415269966447</v>
       </c>
       <c r="J2">
-        <v>13.66971789591322</v>
+        <v>12.76087167300353</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.124153088510618</v>
+        <v>15.46640481082411</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.89257320657821</v>
       </c>
       <c r="N2">
-        <v>6.337615882601959</v>
+        <v>6.04909073052298</v>
       </c>
       <c r="O2">
-        <v>12.96065726568803</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.768856641933001</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.11613863528664</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.80524592656351</v>
+        <v>19.70694935229464</v>
       </c>
       <c r="C3">
-        <v>11.68895186342703</v>
+        <v>12.41535902018548</v>
       </c>
       <c r="D3">
-        <v>3.206898344486785</v>
+        <v>3.50390532503987</v>
       </c>
       <c r="E3">
-        <v>6.836835103107866</v>
+        <v>6.863648294282227</v>
       </c>
       <c r="F3">
-        <v>31.11647189634347</v>
+        <v>28.59320607630773</v>
       </c>
       <c r="G3">
-        <v>41.85007697197452</v>
+        <v>37.39825253509041</v>
       </c>
       <c r="H3">
-        <v>3.857472970161122</v>
+        <v>3.602177742666171</v>
       </c>
       <c r="I3">
-        <v>4.439478808582508</v>
+        <v>4.119783267004864</v>
       </c>
       <c r="J3">
-        <v>13.50010480183262</v>
+        <v>12.62973115962709</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.06393624907819</v>
+        <v>15.52557606909824</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.83201863428537</v>
       </c>
       <c r="N3">
-        <v>6.168755438377762</v>
+        <v>5.996145105358797</v>
       </c>
       <c r="O3">
-        <v>12.35758284974101</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.584465106434704</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.48249726863412</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94096231819277</v>
+        <v>18.83178951403293</v>
       </c>
       <c r="C4">
-        <v>11.24275481796241</v>
+        <v>11.86893667343239</v>
       </c>
       <c r="D4">
-        <v>3.176103658975522</v>
+        <v>3.469438453240487</v>
       </c>
       <c r="E4">
-        <v>6.767646324058061</v>
+        <v>6.807795156840569</v>
       </c>
       <c r="F4">
-        <v>30.65726341998591</v>
+        <v>28.29318136256035</v>
       </c>
       <c r="G4">
-        <v>41.03030957758842</v>
+        <v>36.89853575657175</v>
       </c>
       <c r="H4">
-        <v>4.029750660859193</v>
+        <v>3.757341135743734</v>
       </c>
       <c r="I4">
-        <v>4.587271445746066</v>
+        <v>4.247661411116701</v>
       </c>
       <c r="J4">
-        <v>13.3972646821728</v>
+        <v>12.54799630620409</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.025431495582739</v>
+        <v>15.55764019939978</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.81189214544831</v>
       </c>
       <c r="N4">
-        <v>6.063716716161622</v>
+        <v>5.962404613539066</v>
       </c>
       <c r="O4">
-        <v>11.9741268388364</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.469976796122894</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.07847247379977</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57713751605191</v>
+        <v>18.46283317918023</v>
       </c>
       <c r="C5">
-        <v>11.06695714949971</v>
+        <v>11.65035381828951</v>
       </c>
       <c r="D5">
-        <v>3.164927187740556</v>
+        <v>3.456828306471363</v>
       </c>
       <c r="E5">
-        <v>6.73824300785372</v>
+        <v>6.784090061223133</v>
       </c>
       <c r="F5">
-        <v>30.44833631358071</v>
+        <v>28.15282313420007</v>
       </c>
       <c r="G5">
-        <v>40.65584442738648</v>
+        <v>36.66300225429205</v>
       </c>
       <c r="H5">
-        <v>4.10184039117493</v>
+        <v>3.822282984351409</v>
       </c>
       <c r="I5">
-        <v>4.651259565989233</v>
+        <v>4.303794987711856</v>
       </c>
       <c r="J5">
-        <v>13.34837946387546</v>
+        <v>12.50812557677987</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.008740438999054</v>
+        <v>15.55840132559116</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.799820735557</v>
       </c>
       <c r="N5">
-        <v>6.022695901543859</v>
+        <v>5.947960037914718</v>
       </c>
       <c r="O5">
-        <v>11.81647248192408</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.424863533918732</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.91176832182231</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.51564157651285</v>
+        <v>18.40045961771523</v>
       </c>
       <c r="C6">
-        <v>11.05028103837854</v>
+        <v>11.62605387405835</v>
       </c>
       <c r="D6">
-        <v>3.164667962074609</v>
+        <v>3.45634170422944</v>
       </c>
       <c r="E6">
-        <v>6.732503861948904</v>
+        <v>6.779497299514742</v>
       </c>
       <c r="F6">
-        <v>30.38781191533594</v>
+        <v>28.10760570074699</v>
       </c>
       <c r="G6">
-        <v>40.54776962710135</v>
+        <v>36.58501235523243</v>
       </c>
       <c r="H6">
-        <v>4.11447400500515</v>
+        <v>3.83364827595629</v>
       </c>
       <c r="I6">
-        <v>4.665050941345052</v>
+        <v>4.316753334754393</v>
       </c>
       <c r="J6">
-        <v>13.33133695743327</v>
+        <v>12.4938255293684</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.005206228751134</v>
+        <v>15.54476472476469</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.788132616206</v>
       </c>
       <c r="N6">
-        <v>6.018426853536949</v>
+        <v>5.945082328095806</v>
       </c>
       <c r="O6">
-        <v>11.79225467866357</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.419579950750923</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.88575359597223</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.93499178415666</v>
+        <v>18.82585572859823</v>
       </c>
       <c r="C7">
-        <v>11.27462674664201</v>
+        <v>11.89245961541134</v>
       </c>
       <c r="D7">
-        <v>3.180249979201075</v>
+        <v>3.477295468141468</v>
       </c>
       <c r="E7">
-        <v>6.76503239734452</v>
+        <v>6.805383717872377</v>
       </c>
       <c r="F7">
-        <v>30.5845741352836</v>
+        <v>28.19944595864944</v>
       </c>
       <c r="G7">
-        <v>40.90167930896392</v>
+        <v>36.83837217419735</v>
       </c>
       <c r="H7">
-        <v>4.032270224747392</v>
+        <v>3.760381901549149</v>
       </c>
       <c r="I7">
-        <v>4.596319895425424</v>
+        <v>4.258609521136405</v>
       </c>
       <c r="J7">
-        <v>13.37229404729239</v>
+        <v>12.4727237377028</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.023224089463105</v>
+        <v>15.50423216283539</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.77154701996319</v>
       </c>
       <c r="N7">
-        <v>6.070088276716263</v>
+        <v>5.960356989036018</v>
       </c>
       <c r="O7">
-        <v>11.97775698064185</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.475749891066393</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.08179094966831</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68720095222823</v>
+        <v>20.59830546613298</v>
       </c>
       <c r="C8">
-        <v>12.19233475449901</v>
+        <v>12.99820814934399</v>
       </c>
       <c r="D8">
-        <v>3.245530441207244</v>
+        <v>3.558956840716267</v>
       </c>
       <c r="E8">
-        <v>6.906088915201593</v>
+        <v>6.918510540612218</v>
       </c>
       <c r="F8">
-        <v>31.51392021571802</v>
+        <v>28.73167248823491</v>
       </c>
       <c r="G8">
-        <v>42.55607000297888</v>
+        <v>37.95394776150386</v>
       </c>
       <c r="H8">
-        <v>3.680336830558928</v>
+        <v>3.445199130333201</v>
       </c>
       <c r="I8">
-        <v>4.296728294908741</v>
+        <v>4.001896436927317</v>
       </c>
       <c r="J8">
-        <v>13.57942344384733</v>
+        <v>12.5140223507252</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.101230073310963</v>
+        <v>15.39049318218891</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.7862092115456</v>
       </c>
       <c r="N8">
-        <v>6.288558229118026</v>
+        <v>6.027718678511983</v>
       </c>
       <c r="O8">
-        <v>12.76263887502425</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.714462325081646</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.90859803689767</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.76458375423878</v>
+        <v>23.69536936915551</v>
       </c>
       <c r="C9">
-        <v>13.79483106433991</v>
+        <v>14.94494894353578</v>
       </c>
       <c r="D9">
-        <v>3.369086007962056</v>
+        <v>3.70188774973311</v>
       </c>
       <c r="E9">
-        <v>7.170877057199536</v>
+        <v>7.132104649218765</v>
       </c>
       <c r="F9">
-        <v>33.42115074966176</v>
+        <v>29.98689307347994</v>
       </c>
       <c r="G9">
-        <v>45.88774864763826</v>
+        <v>40.13179791076252</v>
       </c>
       <c r="H9">
-        <v>3.029897724540353</v>
+        <v>2.861100978350757</v>
       </c>
       <c r="I9">
-        <v>3.736120537367165</v>
+        <v>3.517968440633422</v>
       </c>
       <c r="J9">
-        <v>14.03779329530957</v>
+        <v>12.81636878894133</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.245686266661382</v>
+        <v>15.25466555340768</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.04958417835789</v>
       </c>
       <c r="N9">
-        <v>6.692983737418105</v>
+        <v>6.154496531187806</v>
       </c>
       <c r="O9">
-        <v>14.18211918230159</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.158908501207925</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.3952033403876</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.8143482860856</v>
+        <v>25.74957705247794</v>
       </c>
       <c r="C10">
-        <v>14.96196511870502</v>
+        <v>16.28444416880616</v>
       </c>
       <c r="D10">
-        <v>3.464701589249647</v>
+        <v>3.827240216693843</v>
       </c>
       <c r="E10">
-        <v>7.339152335800106</v>
+        <v>7.269553019336898</v>
       </c>
       <c r="F10">
-        <v>34.44959019516933</v>
+        <v>30.45727046317074</v>
       </c>
       <c r="G10">
-        <v>47.69719035824425</v>
+        <v>41.54021325265702</v>
       </c>
       <c r="H10">
-        <v>2.604705175845244</v>
+        <v>2.485717426295528</v>
       </c>
       <c r="I10">
-        <v>3.359806484386824</v>
+        <v>3.199700395857231</v>
       </c>
       <c r="J10">
-        <v>14.26507113628345</v>
+        <v>12.65699250216534</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.337117839902422</v>
+        <v>14.93133903030309</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.11081473632225</v>
       </c>
       <c r="N10">
-        <v>6.930633570934758</v>
+        <v>6.240452949657912</v>
       </c>
       <c r="O10">
-        <v>15.11773254944682</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.419765425894201</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.36866095968845</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.7832681259008</v>
+        <v>26.72607889090608</v>
       </c>
       <c r="C11">
-        <v>16.06674764591087</v>
+        <v>17.23447192423352</v>
       </c>
       <c r="D11">
-        <v>3.518248840976606</v>
+        <v>3.879893728490046</v>
       </c>
       <c r="E11">
-        <v>7.358733911028336</v>
+        <v>7.319348023470021</v>
       </c>
       <c r="F11">
-        <v>32.14187404215131</v>
+        <v>28.17544791705492</v>
       </c>
       <c r="G11">
-        <v>44.10819079386051</v>
+        <v>39.10586985912828</v>
       </c>
       <c r="H11">
-        <v>3.329710156554557</v>
+        <v>3.251186457486183</v>
       </c>
       <c r="I11">
-        <v>3.267112454605198</v>
+        <v>3.129854723004117</v>
       </c>
       <c r="J11">
-        <v>13.44657061927158</v>
+        <v>11.45070073045243</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.375514745481363</v>
+        <v>13.70563372573618</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.95904561202787</v>
       </c>
       <c r="N11">
-        <v>6.592553681809048</v>
+        <v>6.342262873220999</v>
       </c>
       <c r="O11">
-        <v>15.22017152737621</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.032597152564881</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.45203012545638</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.1852295288169</v>
+        <v>27.13459834274823</v>
       </c>
       <c r="C12">
-        <v>16.73915938836842</v>
+        <v>17.7492336378906</v>
       </c>
       <c r="D12">
-        <v>3.534028649961447</v>
+        <v>3.874369832592247</v>
       </c>
       <c r="E12">
-        <v>7.466565637376434</v>
+        <v>7.44728885065922</v>
       </c>
       <c r="F12">
-        <v>30.06348710930277</v>
+        <v>26.33481359310032</v>
       </c>
       <c r="G12">
-        <v>40.83289585825304</v>
+        <v>36.69960641490938</v>
       </c>
       <c r="H12">
-        <v>4.544212055502619</v>
+        <v>4.487899371782468</v>
       </c>
       <c r="I12">
-        <v>3.245853158044852</v>
+        <v>3.112201533524682</v>
       </c>
       <c r="J12">
-        <v>12.74450441853255</v>
+        <v>10.71344485206963</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.471578038541193</v>
+        <v>12.89668326833607</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.08794750103427</v>
       </c>
       <c r="N12">
-        <v>6.257505778248623</v>
+        <v>6.483438977610264</v>
       </c>
       <c r="O12">
-        <v>15.0992457407185</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.650957006951966</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.30731008784002</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.18733966178451</v>
+        <v>27.1437888669913</v>
       </c>
       <c r="C13">
-        <v>17.17842686719079</v>
+        <v>18.02797887353543</v>
       </c>
       <c r="D13">
-        <v>3.527495320065782</v>
+        <v>3.823451152869109</v>
       </c>
       <c r="E13">
-        <v>7.637291079668115</v>
+        <v>7.638335512955329</v>
       </c>
       <c r="F13">
-        <v>27.91513171578686</v>
+        <v>24.68547963415765</v>
       </c>
       <c r="G13">
-        <v>37.37505908051262</v>
+        <v>33.86766881921408</v>
       </c>
       <c r="H13">
-        <v>5.889900204837422</v>
+        <v>5.841276766000434</v>
       </c>
       <c r="I13">
-        <v>3.292629245239334</v>
+        <v>3.149278145581101</v>
       </c>
       <c r="J13">
-        <v>12.05196465840946</v>
+        <v>10.32079124743512</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.608785510894005</v>
+        <v>12.31318330995473</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.37389848675862</v>
       </c>
       <c r="N13">
-        <v>5.912706355202759</v>
+        <v>6.652001368194599</v>
       </c>
       <c r="O13">
-        <v>14.80334059115492</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.257238659805011</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.98013307738884</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.00811820684843</v>
+        <v>26.96974807961588</v>
       </c>
       <c r="C14">
-        <v>17.39650784053012</v>
+        <v>18.12861457351777</v>
       </c>
       <c r="D14">
-        <v>3.513422508376113</v>
+        <v>3.770509268853324</v>
       </c>
       <c r="E14">
-        <v>7.795939762454079</v>
+        <v>7.812089951074634</v>
       </c>
       <c r="F14">
-        <v>26.36438713979808</v>
+        <v>23.59695847845811</v>
       </c>
       <c r="G14">
-        <v>34.82907538980699</v>
+        <v>31.66672623278713</v>
       </c>
       <c r="H14">
-        <v>6.868856939139622</v>
+        <v>6.821625070629681</v>
       </c>
       <c r="I14">
-        <v>3.358598690298811</v>
+        <v>3.203164411270047</v>
       </c>
       <c r="J14">
-        <v>11.56999864490225</v>
+        <v>10.17222387749422</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.730258632458005</v>
+        <v>11.99405223403013</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.94965916011334</v>
       </c>
       <c r="N14">
-        <v>5.671518834751456</v>
+        <v>6.786305301358261</v>
       </c>
       <c r="O14">
-        <v>14.51465875968121</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.981442549020746</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.66549930377835</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87803438127846</v>
+        <v>26.8409696926787</v>
       </c>
       <c r="C15">
-        <v>17.41026560017228</v>
+        <v>18.11214528976405</v>
       </c>
       <c r="D15">
-        <v>3.506927010337117</v>
+        <v>3.751288068558762</v>
       </c>
       <c r="E15">
-        <v>7.831715003669916</v>
+        <v>7.8536677600943</v>
       </c>
       <c r="F15">
-        <v>25.95187633048808</v>
+        <v>23.34661104286646</v>
       </c>
       <c r="G15">
-        <v>34.13296687088257</v>
+        <v>31.02164724265041</v>
       </c>
       <c r="H15">
-        <v>7.101886278418458</v>
+        <v>7.053600397464265</v>
       </c>
       <c r="I15">
-        <v>3.394015514398566</v>
+        <v>3.233457066282964</v>
       </c>
       <c r="J15">
-        <v>11.4477039231138</v>
+        <v>10.18283885888447</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.758528941642449</v>
+        <v>11.93961395440345</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.86730297752032</v>
       </c>
       <c r="N15">
-        <v>5.611348493027351</v>
+        <v>6.815850615917227</v>
       </c>
       <c r="O15">
-        <v>14.40884302806935</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.912465984372609</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.55141066974244</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04447831749513</v>
+        <v>26.00643679002691</v>
       </c>
       <c r="C16">
-        <v>16.89535382397482</v>
+        <v>17.59502413515779</v>
       </c>
       <c r="D16">
-        <v>3.469572658470454</v>
+        <v>3.685724713814015</v>
       </c>
       <c r="E16">
-        <v>7.71982675832843</v>
+        <v>7.764165414377823</v>
       </c>
       <c r="F16">
-        <v>25.85187176037593</v>
+        <v>23.63392395835162</v>
       </c>
       <c r="G16">
-        <v>33.85307444403062</v>
+        <v>30.44717159122025</v>
       </c>
       <c r="H16">
-        <v>6.949759303343975</v>
+        <v>6.887247265893541</v>
       </c>
       <c r="I16">
-        <v>3.55064911038428</v>
+        <v>3.363322074045988</v>
       </c>
       <c r="J16">
-        <v>11.47040339629181</v>
+        <v>10.64025423490588</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.685887612741332</v>
+        <v>12.19094029247275</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.10014047410142</v>
       </c>
       <c r="N16">
-        <v>5.576311410704396</v>
+        <v>6.735314214419434</v>
       </c>
       <c r="O16">
-        <v>14.0681939759235</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.875324370958008</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.19576138363232</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.49023836936608</v>
+        <v>25.44810522727097</v>
       </c>
       <c r="C17">
-        <v>16.36946773073974</v>
+        <v>17.12496201656684</v>
       </c>
       <c r="D17">
-        <v>3.448913811673201</v>
+        <v>3.666700246041886</v>
       </c>
       <c r="E17">
-        <v>7.538858579243307</v>
+        <v>7.589036665257906</v>
       </c>
       <c r="F17">
-        <v>26.60511766558299</v>
+        <v>24.40434593751722</v>
       </c>
       <c r="G17">
-        <v>35.01698436709915</v>
+        <v>31.25785271110569</v>
       </c>
       <c r="H17">
-        <v>6.292843287889506</v>
+        <v>6.215825547700105</v>
       </c>
       <c r="I17">
-        <v>3.636621596460387</v>
+        <v>3.43594369284015</v>
       </c>
       <c r="J17">
-        <v>11.7419825635045</v>
+        <v>11.04034031016411</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.55937128929833</v>
+        <v>12.56072155128338</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.47789888444473</v>
       </c>
       <c r="N17">
-        <v>5.677380317300085</v>
+        <v>6.598799715773573</v>
       </c>
       <c r="O17">
-        <v>13.96308374226497</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.992798121709125</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.09390554963032</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12503717450905</v>
+        <v>25.07650836965151</v>
       </c>
       <c r="C18">
-        <v>15.76027235211402</v>
+        <v>16.6379392262724</v>
       </c>
       <c r="D18">
-        <v>3.435628628825671</v>
+        <v>3.674096101126449</v>
       </c>
       <c r="E18">
-        <v>7.330740077192206</v>
+        <v>7.370903154684773</v>
       </c>
       <c r="F18">
-        <v>28.24239535519628</v>
+        <v>25.79245493776589</v>
       </c>
       <c r="G18">
-        <v>37.65395705789307</v>
+        <v>33.32572828134786</v>
       </c>
       <c r="H18">
-        <v>5.175609828402401</v>
+        <v>5.079292075040964</v>
       </c>
       <c r="I18">
-        <v>3.659204754896275</v>
+        <v>3.453160856457603</v>
       </c>
       <c r="J18">
-        <v>12.28379118157708</v>
+        <v>11.53983937512024</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.40552452344916</v>
+        <v>13.15278425789437</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.08712177426923</v>
       </c>
       <c r="N18">
-        <v>5.913295202946374</v>
+        <v>6.425772883989445</v>
       </c>
       <c r="O18">
-        <v>14.04541559827084</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.263745614578118</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.19603738852502</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.94172200369005</v>
+        <v>24.88616345612657</v>
       </c>
       <c r="C19">
-        <v>15.20579739616265</v>
+        <v>16.2416591412545</v>
       </c>
       <c r="D19">
-        <v>3.433374487782309</v>
+        <v>3.705530527143873</v>
       </c>
       <c r="E19">
-        <v>7.20177354440311</v>
+        <v>7.214033059335105</v>
       </c>
       <c r="F19">
-        <v>30.37982579305789</v>
+        <v>27.52162610446063</v>
       </c>
       <c r="G19">
-        <v>41.09127985882706</v>
+        <v>36.04696351236223</v>
       </c>
       <c r="H19">
-        <v>3.91912518674551</v>
+        <v>3.7971501768642</v>
       </c>
       <c r="I19">
-        <v>3.642296155745064</v>
+        <v>3.441481126629087</v>
       </c>
       <c r="J19">
-        <v>12.97837851617217</v>
+        <v>12.09530778327619</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.297193489360989</v>
+        <v>13.88267181939483</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.8371404688856</v>
       </c>
       <c r="N19">
-        <v>6.263108621600436</v>
+        <v>6.283188890401151</v>
       </c>
       <c r="O19">
-        <v>14.27604847123592</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.661028314954737</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.45679206310566</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28812776898552</v>
+        <v>25.22351312823719</v>
       </c>
       <c r="C20">
-        <v>14.75088206437579</v>
+        <v>16.04312741154461</v>
       </c>
       <c r="D20">
-        <v>3.451498578149924</v>
+        <v>3.793970702820574</v>
       </c>
       <c r="E20">
-        <v>7.288758063445773</v>
+        <v>7.2301949580461</v>
       </c>
       <c r="F20">
-        <v>33.97320305916318</v>
+        <v>30.26213209677545</v>
       </c>
       <c r="G20">
-        <v>46.8706096757728</v>
+        <v>40.7058190630792</v>
       </c>
       <c r="H20">
-        <v>2.718802489951086</v>
+        <v>2.583730951230243</v>
       </c>
       <c r="I20">
-        <v>3.485564358102316</v>
+        <v>3.312896816133384</v>
       </c>
       <c r="J20">
-        <v>14.13016555572496</v>
+        <v>12.81517480532957</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.308261271914153</v>
+        <v>14.96797403394639</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.04041295274946</v>
       </c>
       <c r="N20">
-        <v>6.885464945937701</v>
+        <v>6.217438091634717</v>
       </c>
       <c r="O20">
-        <v>14.88963705081661</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.364776602361061</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.12789203178512</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.77602545785635</v>
+        <v>26.70864861994741</v>
       </c>
       <c r="C21">
-        <v>15.49872970833699</v>
+        <v>16.85169665652898</v>
       </c>
       <c r="D21">
-        <v>3.521730226759149</v>
+        <v>3.966452800715867</v>
       </c>
       <c r="E21">
-        <v>7.443393229686067</v>
+        <v>7.34690002597951</v>
       </c>
       <c r="F21">
-        <v>35.28109872203699</v>
+        <v>30.50566165697159</v>
       </c>
       <c r="G21">
-        <v>49.07456053863558</v>
+        <v>43.29968839838898</v>
       </c>
       <c r="H21">
-        <v>2.356104090980052</v>
+        <v>2.27204861937466</v>
       </c>
       <c r="I21">
-        <v>3.18804623686831</v>
+        <v>3.071406872909396</v>
       </c>
       <c r="J21">
-        <v>14.48302889479473</v>
+        <v>11.92501927775574</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.388893465332099</v>
+        <v>14.67059652038812</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.04708195267645</v>
       </c>
       <c r="N21">
-        <v>7.143009124345403</v>
+        <v>6.27261399263115</v>
       </c>
       <c r="O21">
-        <v>15.63519233327441</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.657268551819605</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.91281227819192</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.71540273645202</v>
+        <v>27.6490037620988</v>
       </c>
       <c r="C22">
-        <v>15.97186524525781</v>
+        <v>17.34832139118116</v>
       </c>
       <c r="D22">
-        <v>3.563741462381718</v>
+        <v>4.07997213419856</v>
       </c>
       <c r="E22">
-        <v>7.536969157242644</v>
+        <v>7.419996154385868</v>
       </c>
       <c r="F22">
-        <v>36.04464877240832</v>
+        <v>30.56553619298401</v>
       </c>
       <c r="G22">
-        <v>50.3707721002289</v>
+        <v>44.96505919538127</v>
       </c>
       <c r="H22">
-        <v>2.134613987056412</v>
+        <v>2.083247687316526</v>
       </c>
       <c r="I22">
-        <v>2.989129032433159</v>
+        <v>2.906043519657348</v>
       </c>
       <c r="J22">
-        <v>14.68960110083074</v>
+        <v>11.29467562419849</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.438907408580363</v>
+        <v>14.44019156638642</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.01881347994165</v>
       </c>
       <c r="N22">
-        <v>7.274224155518064</v>
+        <v>6.309503475720056</v>
       </c>
       <c r="O22">
-        <v>16.08402722211935</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.8087492233083</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.38406222689581</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.21900071226028</v>
+        <v>27.15016787196621</v>
       </c>
       <c r="C23">
-        <v>15.69006034269381</v>
+        <v>17.0684423258204</v>
       </c>
       <c r="D23">
-        <v>3.536822324839818</v>
+        <v>4.003772629716865</v>
       </c>
       <c r="E23">
-        <v>7.489292056069817</v>
+        <v>7.382894567082585</v>
       </c>
       <c r="F23">
-        <v>35.7086161078137</v>
+        <v>30.66821263286529</v>
       </c>
       <c r="G23">
-        <v>49.80185411267291</v>
+        <v>44.06291929336619</v>
       </c>
       <c r="H23">
-        <v>2.250998881698067</v>
+        <v>2.181106879617321</v>
       </c>
       <c r="I23">
-        <v>3.083535614301722</v>
+        <v>2.97941692761686</v>
       </c>
       <c r="J23">
-        <v>14.60522048176982</v>
+        <v>11.76622400605236</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.414140110538688</v>
+        <v>14.62804544634875</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.10605756933648</v>
       </c>
       <c r="N23">
-        <v>7.19735914610387</v>
+        <v>6.291660167297527</v>
       </c>
       <c r="O23">
-        <v>15.84076272623877</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.721118673720971</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.1289162615691</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25687598887292</v>
+        <v>25.19132873314861</v>
       </c>
       <c r="C24">
-        <v>14.63797836771727</v>
+        <v>15.94623155644654</v>
       </c>
       <c r="D24">
-        <v>3.44279183761336</v>
+        <v>3.788349263757666</v>
       </c>
       <c r="E24">
-        <v>7.303165248071668</v>
+        <v>7.238965292794666</v>
       </c>
       <c r="F24">
-        <v>34.31265553320194</v>
+        <v>30.5468009872022</v>
       </c>
       <c r="G24">
-        <v>47.42184653982966</v>
+        <v>41.15102243325796</v>
       </c>
       <c r="H24">
-        <v>2.701410204232586</v>
+        <v>2.566887578303662</v>
       </c>
       <c r="I24">
-        <v>3.467539517026957</v>
+        <v>3.292183312601091</v>
       </c>
       <c r="J24">
-        <v>14.24753271272162</v>
+        <v>12.91721468494</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.315491484040643</v>
+        <v>15.11326080607399</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.18614810547933</v>
       </c>
       <c r="N24">
-        <v>6.912878389666465</v>
+        <v>6.216916403965822</v>
       </c>
       <c r="O24">
-        <v>14.89785520426893</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.398681458238593</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.14008234620201</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.96881254776231</v>
+        <v>22.8964452046305</v>
       </c>
       <c r="C25">
-        <v>13.42976863547311</v>
+        <v>14.49782451553055</v>
       </c>
       <c r="D25">
-        <v>3.342535837973305</v>
+        <v>3.665229588096828</v>
       </c>
       <c r="E25">
-        <v>7.097196369535226</v>
+        <v>7.073384535127844</v>
       </c>
       <c r="F25">
-        <v>32.79293417633733</v>
+        <v>29.59270175495113</v>
       </c>
       <c r="G25">
-        <v>44.79834019372005</v>
+        <v>39.30490606744218</v>
       </c>
       <c r="H25">
-        <v>3.204033368250951</v>
+        <v>3.016188288965727</v>
       </c>
       <c r="I25">
-        <v>3.898623286942741</v>
+        <v>3.661495755235691</v>
       </c>
       <c r="J25">
-        <v>13.87097828539894</v>
+        <v>12.77403110771783</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.204695760336181</v>
+        <v>15.25892167525274</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.92904112315586</v>
       </c>
       <c r="N25">
-        <v>6.596632227973233</v>
+        <v>6.120281241052087</v>
       </c>
       <c r="O25">
-        <v>13.81950144988413</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.049871061867043</v>
       </c>
       <c r="Q25">
+        <v>14.01424714839195</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
